--- a/Test/src/main/java/com/qa/Illuminate/Testdata/Logindata.xlsx
+++ b/Test/src/main/java/com/qa/Illuminate/Testdata/Logindata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>abhi124</t>
+  </si>
+  <si>
+    <t>itAdmin@n2nservices.com</t>
+  </si>
+  <si>
+    <t>N2nservices!</t>
   </si>
 </sst>
 </file>
@@ -392,16 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,11 +427,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,12 +442,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Abhi@123@"/>
+    <hyperlink ref="B5" r:id="rId1" display="Abhi@123@"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
